--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>78.53874491843685</v>
+        <v>65.06860185724791</v>
       </c>
       <c r="C2">
-        <v>99.11349006644133</v>
+        <v>94.66552152454085</v>
       </c>
       <c r="D2">
-        <v>98.80254980117088</v>
+        <v>98.82686518400283</v>
       </c>
       <c r="E2">
-        <v>98.81371589856252</v>
+        <v>98.28324009918686</v>
       </c>
       <c r="F2">
-        <v>98.21331784868714</v>
+        <v>98.42666309375164</v>
       </c>
       <c r="G2">
-        <v>97.54996650381355</v>
+        <v>97.57916325379115</v>
       </c>
       <c r="H2">
-        <v>96.22927145095836</v>
+        <v>96.13041750045974</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>51.62682611553099</v>
+        <v>67.2061853182154</v>
       </c>
       <c r="C3">
-        <v>99.17120853248532</v>
+        <v>94.16011017150215</v>
       </c>
       <c r="D3">
-        <v>98.94783368065832</v>
+        <v>99.82767734311415</v>
       </c>
       <c r="E3">
-        <v>98.64747912660322</v>
+        <v>98.91649001547911</v>
       </c>
       <c r="F3">
-        <v>98.41741696527433</v>
+        <v>98.63142936162016</v>
       </c>
       <c r="G3">
-        <v>97.51574797075881</v>
+        <v>97.65793611794369</v>
       </c>
       <c r="H3">
-        <v>96.27862001683495</v>
+        <v>96.1895233645517</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>82.25632778373809</v>
+        <v>86.40063628940017</v>
       </c>
       <c r="C4">
-        <v>99.06636536343781</v>
+        <v>93.08738621875607</v>
       </c>
       <c r="D4">
-        <v>98.54190519186375</v>
+        <v>98.78468112208979</v>
       </c>
       <c r="E4">
-        <v>98.50242822934575</v>
+        <v>98.78725109838855</v>
       </c>
       <c r="F4">
-        <v>98.47328012308229</v>
+        <v>98.4703883880736</v>
       </c>
       <c r="G4">
-        <v>97.53031259264621</v>
+        <v>97.53175931721469</v>
       </c>
       <c r="H4">
-        <v>96.22997457033516</v>
+        <v>96.11969775252989</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>82.88487149320464</v>
+        <v>76.1140395382857</v>
       </c>
       <c r="C5">
-        <v>98.89349178406104</v>
+        <v>92.38833927082841</v>
       </c>
       <c r="D5">
-        <v>98.7820266157154</v>
+        <v>98.760457854393</v>
       </c>
       <c r="E5">
-        <v>98.78109403992467</v>
+        <v>98.88946130907308</v>
       </c>
       <c r="F5">
-        <v>98.27742151273988</v>
+        <v>98.41562240624651</v>
       </c>
       <c r="G5">
-        <v>97.6130670912339</v>
+        <v>97.47559909487194</v>
       </c>
       <c r="H5">
-        <v>96.29945461713153</v>
+        <v>96.0760260454833</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>74.49537665179152</v>
+        <v>75.35715950445983</v>
       </c>
       <c r="C6">
-        <v>99.3668247155087</v>
+        <v>95.21512593686357</v>
       </c>
       <c r="D6">
-        <v>98.97928219534055</v>
+        <v>98.70946122742986</v>
       </c>
       <c r="E6">
-        <v>98.74990485920826</v>
+        <v>98.90334474522793</v>
       </c>
       <c r="F6">
-        <v>98.3194471355051</v>
+        <v>98.39272527353231</v>
       </c>
       <c r="G6">
-        <v>97.59595738651825</v>
+        <v>97.56543269061787</v>
       </c>
       <c r="H6">
-        <v>96.18769501885181</v>
+        <v>96.12280794758816</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>65.06860185724791</v>
@@ -456,15 +462,18 @@
         <v>98.42666309375164</v>
       </c>
       <c r="G2">
+        <v>97.96335434236535</v>
+      </c>
+      <c r="H2">
         <v>97.57916325379115</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.13041750045974</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>67.2061853182154</v>
@@ -482,15 +491,18 @@
         <v>98.63142936162016</v>
       </c>
       <c r="G3">
+        <v>98.10979447162063</v>
+      </c>
+      <c r="H3">
         <v>97.65793611794369</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>96.1895233645517</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>86.40063628940017</v>
@@ -508,15 +520,18 @@
         <v>98.4703883880736</v>
       </c>
       <c r="G4">
+        <v>97.95403931237809</v>
+      </c>
+      <c r="H4">
         <v>97.53175931721469</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>96.11969775252989</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>76.1140395382857</v>
@@ -534,15 +549,18 @@
         <v>98.41562240624651</v>
       </c>
       <c r="G5">
+        <v>97.97398492052123</v>
+      </c>
+      <c r="H5">
         <v>97.47559909487194</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>96.0760260454833</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>75.35715950445983</v>
@@ -560,9 +578,12 @@
         <v>98.39272527353231</v>
       </c>
       <c r="G6">
+        <v>98.01147503546618</v>
+      </c>
+      <c r="H6">
         <v>97.56543269061787</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>96.12280794758816</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_AV-MCPS.xlsx
@@ -447,28 +447,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>65.06860185724791</v>
+        <v>64.94252572409628</v>
       </c>
       <c r="C2">
-        <v>94.66552152454085</v>
+        <v>94.7083675317229</v>
       </c>
       <c r="D2">
-        <v>98.82686518400283</v>
+        <v>98.82187989694229</v>
       </c>
       <c r="E2">
-        <v>98.28324009918686</v>
+        <v>98.28123052373068</v>
       </c>
       <c r="F2">
-        <v>98.42666309375164</v>
+        <v>98.42666706849232</v>
       </c>
       <c r="G2">
-        <v>97.96335434236535</v>
+        <v>97.89243103268453</v>
       </c>
       <c r="H2">
-        <v>97.57916325379115</v>
+        <v>97.52068520966016</v>
       </c>
       <c r="I2">
-        <v>96.13041750045974</v>
+        <v>96.21924031811159</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,28 +476,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>67.2061853182154</v>
+        <v>66.94442694611192</v>
       </c>
       <c r="C3">
-        <v>94.16011017150215</v>
+        <v>94.17750568227869</v>
       </c>
       <c r="D3">
-        <v>99.82767734311415</v>
+        <v>99.82731784166599</v>
       </c>
       <c r="E3">
-        <v>98.91649001547911</v>
+        <v>98.91690626040783</v>
       </c>
       <c r="F3">
-        <v>98.63142936162016</v>
+        <v>98.6311397405362</v>
       </c>
       <c r="G3">
-        <v>98.10979447162063</v>
+        <v>98.15307223342572</v>
       </c>
       <c r="H3">
-        <v>97.65793611794369</v>
+        <v>97.60050103818924</v>
       </c>
       <c r="I3">
-        <v>96.1895233645517</v>
+        <v>96.20732313761773</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +505,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>86.40063628940017</v>
+        <v>86.33081026460692</v>
       </c>
       <c r="C4">
-        <v>93.08738621875607</v>
+        <v>93.09258689473516</v>
       </c>
       <c r="D4">
-        <v>98.78468112208979</v>
+        <v>98.78439556107871</v>
       </c>
       <c r="E4">
-        <v>98.78725109838855</v>
+        <v>98.78839018711152</v>
       </c>
       <c r="F4">
-        <v>98.4703883880736</v>
+        <v>98.47144634178163</v>
       </c>
       <c r="G4">
-        <v>97.95403931237809</v>
+        <v>98.00599725845983</v>
       </c>
       <c r="H4">
-        <v>97.53175931721469</v>
+        <v>97.51004626892733</v>
       </c>
       <c r="I4">
-        <v>96.11969775252989</v>
+        <v>96.16055114837152</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>76.1140395382857</v>
+        <v>75.97080312273226</v>
       </c>
       <c r="C5">
-        <v>92.38833927082841</v>
+        <v>92.41733894708864</v>
       </c>
       <c r="D5">
-        <v>98.760457854393</v>
+        <v>98.75981368270992</v>
       </c>
       <c r="E5">
-        <v>98.88946130907308</v>
+        <v>98.8890111200796</v>
       </c>
       <c r="F5">
-        <v>98.41562240624651</v>
+        <v>98.41583254386596</v>
       </c>
       <c r="G5">
-        <v>97.97398492052123</v>
+        <v>97.94311010528544</v>
       </c>
       <c r="H5">
-        <v>97.47559909487194</v>
+        <v>97.46715763101524</v>
       </c>
       <c r="I5">
-        <v>96.0760260454833</v>
+        <v>96.18455250458092</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>75.35715950445983</v>
+        <v>75.19412410012055</v>
       </c>
       <c r="C6">
-        <v>95.21512593686357</v>
+        <v>95.2242608908648</v>
       </c>
       <c r="D6">
-        <v>98.70946122742986</v>
+        <v>98.70140094385621</v>
       </c>
       <c r="E6">
-        <v>98.90334474522793</v>
+        <v>98.90394798629896</v>
       </c>
       <c r="F6">
-        <v>98.39272527353231</v>
+        <v>98.3932115870541</v>
       </c>
       <c r="G6">
-        <v>98.01147503546618</v>
+        <v>97.97034026156507</v>
       </c>
       <c r="H6">
-        <v>97.56543269061787</v>
+        <v>97.48760468379996</v>
       </c>
       <c r="I6">
-        <v>96.12280794758816</v>
+        <v>96.13076296832848</v>
       </c>
     </row>
   </sheetData>
